--- a/updates.xlsx
+++ b/updates.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -43,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -60,9 +64,11 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +119,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -133,10 +139,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -154,6 +160,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
